--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.1221577884814</v>
+        <v>292.8371132153648</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.9139738448864</v>
+        <v>400.6726573629166</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.427447218399</v>
+        <v>362.4330212918055</v>
       </c>
       <c r="AD2" t="n">
-        <v>241122.1577884814</v>
+        <v>292837.1132153647</v>
       </c>
       <c r="AE2" t="n">
-        <v>329913.9738448863</v>
+        <v>400672.6573629166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.532647027527239e-06</v>
+        <v>3.651227093362815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>298427.447218399</v>
+        <v>362433.0212918055</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.7505011214535</v>
+        <v>196.8319992442988</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.3682186276683</v>
+        <v>269.3142249808736</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.2909710955529</v>
+        <v>243.6112533336666</v>
       </c>
       <c r="AD3" t="n">
-        <v>153750.5011214535</v>
+        <v>196831.9992442988</v>
       </c>
       <c r="AE3" t="n">
-        <v>210368.2186276683</v>
+        <v>269314.2249808736</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.435018071550402e-06</v>
+        <v>4.952143315952395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.84837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>190290.9710955529</v>
+        <v>243611.2533336666</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.3311703237868</v>
+        <v>175.7793901596997</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.3755423281034</v>
+        <v>240.5091164557766</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.9200519726421</v>
+        <v>217.5552639379719</v>
       </c>
       <c r="AD4" t="n">
-        <v>141331.1703237868</v>
+        <v>175779.3901596997</v>
       </c>
       <c r="AE4" t="n">
-        <v>193375.5423281034</v>
+        <v>240509.1164557766</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.770768163765515e-06</v>
+        <v>5.436182275969574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>174920.0519726421</v>
+        <v>217555.2639379719</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.3861411273985</v>
+        <v>159.919612309332</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.5588499365743</v>
+        <v>218.8090687168967</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.1855140830336</v>
+        <v>197.9262382990756</v>
       </c>
       <c r="AD5" t="n">
-        <v>125386.1411273985</v>
+        <v>159919.612309332</v>
       </c>
       <c r="AE5" t="n">
-        <v>171558.8499365743</v>
+        <v>218809.0687168968</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.968657471988032e-06</v>
+        <v>5.721472249588334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>155185.5140830335</v>
+        <v>197926.2382990756</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.7036240600852</v>
+        <v>155.0665030414265</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.152023507006</v>
+        <v>212.1688305124815</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.3901461758638</v>
+        <v>191.9197351092548</v>
       </c>
       <c r="AD6" t="n">
-        <v>120703.6240600852</v>
+        <v>155066.5030414265</v>
       </c>
       <c r="AE6" t="n">
-        <v>165152.023507006</v>
+        <v>212168.8305124815</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06838990200782e-06</v>
+        <v>5.86525294489142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH6" t="n">
-        <v>149390.1461758638</v>
+        <v>191919.7351092548</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.00105013163</v>
+        <v>154.3639291129713</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.1907308627199</v>
+        <v>211.2075378681954</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.5205979523654</v>
+        <v>191.0501868857563</v>
       </c>
       <c r="AD7" t="n">
-        <v>120001.0501316299</v>
+        <v>154363.9291129713</v>
       </c>
       <c r="AE7" t="n">
-        <v>164190.7308627199</v>
+        <v>211207.5378681954</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.087926744539341e-06</v>
+        <v>5.89341851553531e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.436342592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>148520.5979523654</v>
+        <v>191050.1868857563</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.6318862921951</v>
+        <v>229.8043449217813</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.7262245594738</v>
+        <v>314.4284429740107</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.2246340051116</v>
+        <v>284.4198336797556</v>
       </c>
       <c r="AD2" t="n">
-        <v>187631.8862921951</v>
+        <v>229804.3449217813</v>
       </c>
       <c r="AE2" t="n">
-        <v>256726.2245594738</v>
+        <v>314428.4429740107</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978834552398167e-06</v>
+        <v>4.3609017240743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>232224.6340051116</v>
+        <v>284419.8336797556</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.8541802144088</v>
+        <v>169.4386230883999</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.8816828327057</v>
+        <v>231.8333992139279</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.1413959097849</v>
+        <v>209.7075449732369</v>
       </c>
       <c r="AD3" t="n">
-        <v>135854.1802144088</v>
+        <v>169438.6230883999</v>
       </c>
       <c r="AE3" t="n">
-        <v>185881.6828327057</v>
+        <v>231833.3992139279</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831047775125513e-06</v>
+        <v>5.608509822778079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>168141.3959097849</v>
+        <v>209707.5449732369</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.7590083237675</v>
+        <v>151.4287025437792</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.1230703493004</v>
+        <v>207.1914313831718</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.745710652857</v>
+        <v>187.4173719670212</v>
       </c>
       <c r="AD4" t="n">
-        <v>117759.0083237675</v>
+        <v>151428.7025437792</v>
       </c>
       <c r="AE4" t="n">
-        <v>161123.0703493004</v>
+        <v>207191.4313831718</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>6.045562385724481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>145745.710652857</v>
+        <v>187417.3719670212</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.1774583656236</v>
+        <v>146.676560385043</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.854391572852</v>
+        <v>200.6893408318765</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.0753057806849</v>
+        <v>181.5358318121981</v>
       </c>
       <c r="AD5" t="n">
-        <v>113177.4583656236</v>
+        <v>146676.560385043</v>
       </c>
       <c r="AE5" t="n">
-        <v>154854.391572852</v>
+        <v>200689.3408318765</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.26476052260941e-06</v>
+        <v>6.243448969275099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>140075.305780685</v>
+        <v>181535.8318121981</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.4586841897611</v>
+        <v>146.9577862091806</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.2391771522445</v>
+        <v>201.074126411269</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.4233679644303</v>
+        <v>181.8838939959435</v>
       </c>
       <c r="AD6" t="n">
-        <v>113458.6841897611</v>
+        <v>146957.7862091806</v>
       </c>
       <c r="AE6" t="n">
-        <v>155239.1771522445</v>
+        <v>201074.126411269</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.264380215803399e-06</v>
+        <v>6.242892214417843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>140423.3679644303</v>
+        <v>181883.8939959435</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0010301605614</v>
+        <v>131.0701850975204</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.8258211997088</v>
+        <v>179.3360096588132</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7673568606914</v>
+        <v>162.2204325966966</v>
       </c>
       <c r="AD2" t="n">
-        <v>100001.0301605614</v>
+        <v>131070.1850975204</v>
       </c>
       <c r="AE2" t="n">
-        <v>136825.8211997088</v>
+        <v>179336.0096588132</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478647999630032e-06</v>
+        <v>6.929021268005853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>123767.3568606914</v>
+        <v>162220.4325966966</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.08513062753627</v>
+        <v>128.1542855644952</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.8361588182174</v>
+        <v>175.3463472773219</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.158462257362</v>
+        <v>158.6115379933673</v>
       </c>
       <c r="AD3" t="n">
-        <v>97085.13062753627</v>
+        <v>128154.2855644953</v>
       </c>
       <c r="AE3" t="n">
-        <v>132836.1588182174</v>
+        <v>175346.3472773219</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.634633181597763e-06</v>
+        <v>7.170349598215651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.569444444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>120158.462257362</v>
+        <v>158611.5379933672</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.8338127414381</v>
+        <v>167.8557994455889</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.9078622225522</v>
+        <v>229.6677100765841</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.214901336807</v>
+        <v>207.7485461675967</v>
       </c>
       <c r="AD2" t="n">
-        <v>127833.8127414381</v>
+        <v>167855.7994455889</v>
       </c>
       <c r="AE2" t="n">
-        <v>174907.8622225522</v>
+        <v>229667.7100765841</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850937456175784e-06</v>
+        <v>5.819898550355942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>158214.901336807</v>
+        <v>207748.5461675967</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.7012896977828</v>
+        <v>134.6165595441685</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.5204354255765</v>
+        <v>184.1883156317133</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.1093622902671</v>
+        <v>166.6096412977989</v>
       </c>
       <c r="AD3" t="n">
-        <v>102701.2896977828</v>
+        <v>134616.5595441685</v>
       </c>
       <c r="AE3" t="n">
-        <v>140520.4354255765</v>
+        <v>184188.3156317133</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.525789611179043e-06</v>
+        <v>6.839798541800718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>127109.3622902671</v>
+        <v>166609.6412977989</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8264952184194</v>
+        <v>134.741765064805</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.6917471425891</v>
+        <v>184.3596273487259</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2643242574456</v>
+        <v>166.7646032649774</v>
       </c>
       <c r="AD4" t="n">
-        <v>102826.4952184194</v>
+        <v>134741.765064805</v>
       </c>
       <c r="AE4" t="n">
-        <v>140691.7471425891</v>
+        <v>184359.6273487259</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.526021598856941e-06</v>
+        <v>6.840149143379076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>127264.3242574456</v>
+        <v>166764.6032649774</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.89390660241529</v>
+        <v>123.1291531509795</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1015412032956</v>
+        <v>168.4707394159573</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9711484990201</v>
+        <v>152.3921284963129</v>
       </c>
       <c r="AD2" t="n">
-        <v>92893.90660241529</v>
+        <v>123129.1531509795</v>
       </c>
       <c r="AE2" t="n">
-        <v>127101.5412032956</v>
+        <v>168470.7394159573</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649689828829357e-06</v>
+        <v>7.34877893328262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>114971.1484990201</v>
+        <v>152392.1284963129</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.3933074957257</v>
+        <v>246.1530625557953</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.3457434598765</v>
+        <v>336.7974796953759</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.8306409262516</v>
+        <v>304.6540009315812</v>
       </c>
       <c r="AD2" t="n">
-        <v>195393.3074957257</v>
+        <v>246153.0625557953</v>
       </c>
       <c r="AE2" t="n">
-        <v>267345.7434598765</v>
+        <v>336797.4796953759</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868352354567139e-06</v>
+        <v>4.181731569481791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.86226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>241830.6409262516</v>
+        <v>304654.0009315811</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8430358730389</v>
+        <v>173.6545151367791</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.3394111207326</v>
+        <v>237.601768706548</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.078246269974</v>
+        <v>214.9253893774406</v>
       </c>
       <c r="AD3" t="n">
-        <v>139843.0358730389</v>
+        <v>173654.5151367791</v>
       </c>
       <c r="AE3" t="n">
-        <v>191339.4111207326</v>
+        <v>237601.768706548</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.735846688328181e-06</v>
+        <v>5.446439664377813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.33912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>173078.246269974</v>
+        <v>214925.3893774406</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.2262574510675</v>
+        <v>155.1229880608284</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.8671135695056</v>
+        <v>212.2461158079703</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.0369890464339</v>
+        <v>191.9896444046128</v>
       </c>
       <c r="AD4" t="n">
-        <v>121226.2574510675</v>
+        <v>155122.9880608284</v>
       </c>
       <c r="AE4" t="n">
-        <v>165867.1135695056</v>
+        <v>212246.1158079703</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.045166136407699e-06</v>
+        <v>5.89739224662568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.702546296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>150036.9890464339</v>
+        <v>191989.6444046128</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.2612876765085</v>
+        <v>148.9874260856772</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.7055787680642</v>
+        <v>203.8511692316821</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.6543796716534</v>
+        <v>184.3958997471813</v>
       </c>
       <c r="AD5" t="n">
-        <v>115261.2876765085</v>
+        <v>148987.4260856771</v>
       </c>
       <c r="AE5" t="n">
-        <v>157705.5787680642</v>
+        <v>203851.1692316821</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.204806199689816e-06</v>
+        <v>6.130129306045162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>142654.3796716534</v>
+        <v>184395.8997471813</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.8799291219196</v>
+        <v>148.6060675310883</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.183787169324</v>
+        <v>203.3293776329418</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.1823871307577</v>
+        <v>183.9239072062855</v>
       </c>
       <c r="AD6" t="n">
-        <v>114879.9291219196</v>
+        <v>148606.0675310883</v>
       </c>
       <c r="AE6" t="n">
-        <v>157183.787169324</v>
+        <v>203329.3776329418</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.224135300100704e-06</v>
+        <v>6.158308936511131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>142182.3871307577</v>
+        <v>183923.9072062855</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.50391757742959</v>
+        <v>128.1601141555838</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.7774057155232</v>
+        <v>175.3543222127885</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.9144392753466</v>
+        <v>158.6187518121858</v>
       </c>
       <c r="AD2" t="n">
-        <v>98503.91757742959</v>
+        <v>128160.1141555838</v>
       </c>
       <c r="AE2" t="n">
-        <v>134777.4057155232</v>
+        <v>175354.3222127885</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.593389526055615e-06</v>
+        <v>7.359688997274785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.119212962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>121914.4392753466</v>
+        <v>158618.7518121858</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.8336455778938</v>
+        <v>196.9997096877578</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.2184687748157</v>
+        <v>269.5436938084767</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.8691973690087</v>
+        <v>243.8188219784248</v>
       </c>
       <c r="AD2" t="n">
-        <v>155833.6455778938</v>
+        <v>196999.7096877578</v>
       </c>
       <c r="AE2" t="n">
-        <v>213218.4687748157</v>
+        <v>269543.6938084767</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.390594338461484e-06</v>
+        <v>5.034500937690238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.554398148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>192869.1973690087</v>
+        <v>243818.8219784248</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.0396520106788</v>
+        <v>147.97250329857</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.4023270722006</v>
+        <v>202.4625070991294</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.3800698920266</v>
+        <v>183.1397695795594</v>
       </c>
       <c r="AD3" t="n">
-        <v>115039.6520106788</v>
+        <v>147972.50329857</v>
       </c>
       <c r="AE3" t="n">
-        <v>157402.3270722007</v>
+        <v>202462.5070991294</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158532721367003e-06</v>
+        <v>6.174769021362106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.789351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>142380.0698920266</v>
+        <v>183139.7695795594</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.9518482243015</v>
+        <v>140.7141073116005</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.7044812398498</v>
+        <v>192.5312494919317</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.6077728549001</v>
+        <v>174.1563372597819</v>
       </c>
       <c r="AD4" t="n">
-        <v>107951.8482243015</v>
+        <v>140714.1073116005</v>
       </c>
       <c r="AE4" t="n">
-        <v>147704.4812398498</v>
+        <v>192531.2494919317</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.400574092289335e-06</v>
+        <v>6.534162504400021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.361111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>133607.7728549001</v>
+        <v>174156.3372597819</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.2847796295998</v>
+        <v>141.0470387168987</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.1600126764756</v>
+        <v>192.9867809285574</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.0198290105568</v>
+        <v>174.5683934154387</v>
       </c>
       <c r="AD5" t="n">
-        <v>108284.7796295998</v>
+        <v>141047.0387168987</v>
       </c>
       <c r="AE5" t="n">
-        <v>148160.0126764756</v>
+        <v>192986.7809285574</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.3945286556428e-06</v>
+        <v>6.525185978921737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>134019.8290105568</v>
+        <v>174568.3934154387</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.546502979596</v>
+        <v>221.2537822418084</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.6634464092443</v>
+        <v>302.7291858910753</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.2176718748298</v>
+        <v>273.8371372728014</v>
       </c>
       <c r="AD2" t="n">
-        <v>179546.502979596</v>
+        <v>221253.7822418084</v>
       </c>
       <c r="AE2" t="n">
-        <v>245663.4464092443</v>
+        <v>302729.1858910753</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107167087328725e-06</v>
+        <v>4.568910475000244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>222217.6718748299</v>
+        <v>273837.1372728014</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.7889507163084</v>
+        <v>165.1377238568742</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.3194564881397</v>
+        <v>225.9487191430747</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1100206409088</v>
+        <v>204.3844905091437</v>
       </c>
       <c r="AD3" t="n">
-        <v>131788.9507163084</v>
+        <v>165137.7238568742</v>
       </c>
       <c r="AE3" t="n">
-        <v>180319.4564881397</v>
+        <v>225948.7191430747</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928479765081848e-06</v>
+        <v>5.776603525026344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.078703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>163110.0206409088</v>
+        <v>204384.4905091437</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.7512391469003</v>
+        <v>147.0146714328944</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.6394637512159</v>
+        <v>201.1519592839532</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.7854517722018</v>
+        <v>181.9542986084978</v>
       </c>
       <c r="AD4" t="n">
-        <v>113751.2391469003</v>
+        <v>147014.6714328944</v>
       </c>
       <c r="AE4" t="n">
-        <v>155639.4637512159</v>
+        <v>201151.9592839532</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240660851009778e-06</v>
+        <v>6.235647854959469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>140785.4517722018</v>
+        <v>181954.2986084978</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.1881299211329</v>
+        <v>144.4515622071271</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.1325046321242</v>
+        <v>197.6450001648616</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.6131919093871</v>
+        <v>178.7820387456831</v>
       </c>
       <c r="AD5" t="n">
-        <v>111188.1299211329</v>
+        <v>144451.5622071271</v>
       </c>
       <c r="AE5" t="n">
-        <v>152132.5046321242</v>
+        <v>197645.0001648616</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.320735409241469e-06</v>
+        <v>6.353392886881881e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>137613.1919093871</v>
+        <v>178782.0387456831</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.6682986244847</v>
+        <v>274.1602698744626</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.6645896099107</v>
+        <v>375.1181763397185</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.587828777068</v>
+        <v>339.3174240715221</v>
       </c>
       <c r="AD2" t="n">
-        <v>222668.2986244847</v>
+        <v>274160.2698744626</v>
       </c>
       <c r="AE2" t="n">
-        <v>304664.5896099107</v>
+        <v>375118.1763397185</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636694313362991e-06</v>
+        <v>3.814696841054693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>275587.828777068</v>
+        <v>339317.4240715221</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.1832025533024</v>
+        <v>192.007837740376</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1190392317349</v>
+        <v>262.7135943842248</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.638204610387</v>
+        <v>237.6405776571166</v>
       </c>
       <c r="AD3" t="n">
-        <v>149183.2025533023</v>
+        <v>192007.837740376</v>
       </c>
       <c r="AE3" t="n">
-        <v>204119.0392317349</v>
+        <v>262713.5943842248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.527591749458033e-06</v>
+        <v>5.103622757855734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.686342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>184638.204610387</v>
+        <v>237640.5776571166</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.5080302491291</v>
+        <v>162.8360110824453</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.8303563609517</v>
+        <v>222.7994141807017</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.0493539293666</v>
+        <v>201.5357507923013</v>
       </c>
       <c r="AD4" t="n">
-        <v>128508.0302491291</v>
+        <v>162836.0110824453</v>
       </c>
       <c r="AE4" t="n">
-        <v>175830.3563609517</v>
+        <v>222799.4141807017</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.87015502172442e-06</v>
+        <v>5.59923388196409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>159049.3539293666</v>
+        <v>201535.7507923013</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.9510765401365</v>
+        <v>156.2790573734528</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.8588430239307</v>
+        <v>213.8279008436807</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.93406923363</v>
+        <v>193.4204660965647</v>
       </c>
       <c r="AD5" t="n">
-        <v>121951.0765401365</v>
+        <v>156279.0573734528</v>
       </c>
       <c r="AE5" t="n">
-        <v>166858.8430239307</v>
+        <v>213827.9008436807</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04839803481682e-06</v>
+        <v>5.857110972811385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.569444444444446</v>
       </c>
       <c r="AH5" t="n">
-        <v>150934.06923363</v>
+        <v>193420.4660965647</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.1386216152801</v>
+        <v>152.2960102480042</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.642474002104</v>
+        <v>208.3781200470072</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.2155431500249</v>
+        <v>188.4908047303086</v>
       </c>
       <c r="AD6" t="n">
-        <v>118138.6216152801</v>
+        <v>152296.0102480042</v>
       </c>
       <c r="AE6" t="n">
-        <v>161642.474002104</v>
+        <v>208378.1200470072</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127011303139426e-06</v>
+        <v>5.970846488079643e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>146215.5431500249</v>
+        <v>188490.8047303086</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.0008639215128</v>
+        <v>152.1582525542369</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.4539878480512</v>
+        <v>208.1896338929543</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.0450458499728</v>
+        <v>188.3203074302565</v>
       </c>
       <c r="AD7" t="n">
-        <v>118000.8639215128</v>
+        <v>152158.2525542369</v>
       </c>
       <c r="AE7" t="n">
-        <v>161453.9878480512</v>
+        <v>208189.6338929543</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.144004474271788e-06</v>
+        <v>5.995431740875006e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>146045.0458499728</v>
+        <v>188320.3074302565</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.5192751854879</v>
+        <v>173.9129804969104</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.6869627633978</v>
+        <v>237.9554124149663</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.251575440073</v>
+        <v>215.2452818266696</v>
       </c>
       <c r="AD2" t="n">
-        <v>133519.2751854879</v>
+        <v>173912.9804969104</v>
       </c>
       <c r="AE2" t="n">
-        <v>182686.9627633978</v>
+        <v>237955.4124149663</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709618673912298e-06</v>
+        <v>5.570677286550319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.935185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>165251.575440073</v>
+        <v>215245.2818266696</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.9533733315361</v>
+        <v>138.3366102643314</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.9700797250797</v>
+        <v>189.2782531440926</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.1343387829421</v>
+        <v>171.2138023177705</v>
       </c>
       <c r="AD3" t="n">
-        <v>105953.3733315361</v>
+        <v>138336.6102643314</v>
       </c>
       <c r="AE3" t="n">
-        <v>144970.0797250797</v>
+        <v>189278.2531440926</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.420467128987706e-06</v>
+        <v>6.638147474447476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>131134.3387829421</v>
+        <v>171213.8023177705</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.5647094648345</v>
+        <v>136.7773541970377</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.0700485591335</v>
+        <v>187.1448102032996</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.4156439247628</v>
+        <v>169.2839721769401</v>
       </c>
       <c r="AD4" t="n">
-        <v>104564.7094648345</v>
+        <v>136777.3541970376</v>
       </c>
       <c r="AE4" t="n">
-        <v>143070.0485591335</v>
+        <v>187144.8102032996</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485698871682751e-06</v>
+        <v>6.736104978799302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>129415.6439247628</v>
+        <v>169283.9721769401</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.3964664849892</v>
+        <v>145.7439831072899</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.5222922606098</v>
+        <v>199.4133474580495</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.5840243677171</v>
+        <v>180.3816174551008</v>
       </c>
       <c r="AD2" t="n">
-        <v>114396.4664849892</v>
+        <v>145743.9831072899</v>
       </c>
       <c r="AE2" t="n">
-        <v>156522.2922606099</v>
+        <v>199413.3474580495</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.258230521652654e-06</v>
+        <v>6.531047218573697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>141584.0243677171</v>
+        <v>180381.6174551008</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.23181929043825</v>
+        <v>130.6645872587596</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7733529520183</v>
+        <v>178.7810528021072</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8153347054117</v>
+        <v>161.7184400435077</v>
       </c>
       <c r="AD3" t="n">
-        <v>99231.81929043826</v>
+        <v>130664.5872587596</v>
       </c>
       <c r="AE3" t="n">
-        <v>135773.3529520183</v>
+        <v>178781.0528021072</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.596309374607424e-06</v>
+        <v>7.049574560158739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>122815.3347054117</v>
+        <v>161718.4400435077</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.45793676731837</v>
+        <v>126.1309771276836</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.6097603919417</v>
+        <v>172.5779674120091</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1445481721195</v>
+        <v>156.1073684169535</v>
       </c>
       <c r="AD2" t="n">
-        <v>95457.93676731837</v>
+        <v>126130.9771276836</v>
       </c>
       <c r="AE2" t="n">
-        <v>130609.7603919417</v>
+        <v>172577.9674120091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.627048151134531e-06</v>
+        <v>7.229671465931504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>118144.5481721195</v>
+        <v>156107.3684169535</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.21114873440635</v>
+        <v>125.8841890947715</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2720941177921</v>
+        <v>172.2403011378594</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.839108293257</v>
+        <v>155.8019285380909</v>
       </c>
       <c r="AD3" t="n">
-        <v>95211.14873440635</v>
+        <v>125884.1890947715</v>
       </c>
       <c r="AE3" t="n">
-        <v>130272.0941177921</v>
+        <v>172240.3011378594</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653214421005038e-06</v>
+        <v>7.270555746464934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>117839.108293257</v>
+        <v>155801.928538091</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.18093033959747</v>
+        <v>132.5543702808488</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.5989920937588</v>
+        <v>181.3667373042713</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0393689887109</v>
+        <v>164.057350445817</v>
       </c>
       <c r="AD2" t="n">
-        <v>96180.93033959747</v>
+        <v>132554.3702808488</v>
       </c>
       <c r="AE2" t="n">
-        <v>131598.9920937588</v>
+        <v>181366.7373042713</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458396854751498e-06</v>
+        <v>7.265742946057117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>119039.3689887109</v>
+        <v>164057.3504458171</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.3339412140881</v>
+        <v>204.8199194101934</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.480704153942</v>
+        <v>280.2436497540116</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.1520194066922</v>
+        <v>253.4975891460038</v>
       </c>
       <c r="AD2" t="n">
-        <v>163333.9412140881</v>
+        <v>204819.9194101935</v>
       </c>
       <c r="AE2" t="n">
-        <v>223480.704153942</v>
+        <v>280243.6497540117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.244484920106222e-06</v>
+        <v>4.793339742325783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.878472222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>202152.0194066922</v>
+        <v>253497.5891460038</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8437136480889</v>
+        <v>152.0324962049732</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.6072120278576</v>
+        <v>208.0175685079133</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0882079326192</v>
+        <v>188.1646637240684</v>
       </c>
       <c r="AD3" t="n">
-        <v>118843.7136480889</v>
+        <v>152032.4962049732</v>
       </c>
       <c r="AE3" t="n">
-        <v>162607.2120278576</v>
+        <v>208017.5685079133</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056714012223916e-06</v>
+        <v>5.993311412095008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.899305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>147088.2079326192</v>
+        <v>188164.6637240684</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.1732996213209</v>
+        <v>143.191489977613</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.7439690447691</v>
+        <v>195.920913749978</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.3571762096667</v>
+        <v>177.222496718465</v>
       </c>
       <c r="AD4" t="n">
-        <v>110173.2996213209</v>
+        <v>143191.489977613</v>
       </c>
       <c r="AE4" t="n">
-        <v>150743.9690447691</v>
+        <v>195920.9137499779</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.332405493603562e-06</v>
+        <v>6.400612714723488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>136357.1762096667</v>
+        <v>177222.496718465</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.7636223836183</v>
+        <v>142.7818127399104</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.1834305744605</v>
+        <v>195.3603752796693</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.8501347442435</v>
+        <v>176.7154552530418</v>
       </c>
       <c r="AD5" t="n">
-        <v>109763.6223836183</v>
+        <v>142781.8127399104</v>
       </c>
       <c r="AE5" t="n">
-        <v>150183.4305744605</v>
+        <v>195360.3752796693</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.34758320425215e-06</v>
+        <v>6.423035973096043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>135850.1347442435</v>
+        <v>176715.4552530418</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.2370470331759</v>
+        <v>264.2403518768261</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.7603351052335</v>
+        <v>361.5453068994571</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.915138211078</v>
+        <v>327.0399302409974</v>
       </c>
       <c r="AD2" t="n">
-        <v>213237.0470331759</v>
+        <v>264240.3518768261</v>
       </c>
       <c r="AE2" t="n">
-        <v>291760.3351052335</v>
+        <v>361545.3068994571</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747714664616069e-06</v>
+        <v>3.990146099744376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.24421296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>263915.1382110781</v>
+        <v>327039.9302409973</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.9817110798228</v>
+        <v>179.1829832972205</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.3703732410011</v>
+        <v>245.1660627424619</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.4381832335037</v>
+        <v>221.7677578071226</v>
       </c>
       <c r="AD3" t="n">
-        <v>144981.7110798228</v>
+        <v>179182.9832972205</v>
       </c>
       <c r="AE3" t="n">
-        <v>198370.3732410011</v>
+        <v>245166.0627424619</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.616183807387525e-06</v>
+        <v>5.251310079906801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>179438.1832335037</v>
+        <v>221767.7578071227</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.1112429275672</v>
+        <v>159.2271742903933</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.1827220919127</v>
+        <v>217.8616444711759</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.8452833519675</v>
+        <v>197.0692348936477</v>
       </c>
       <c r="AD4" t="n">
-        <v>125111.2429275672</v>
+        <v>159227.1742903933</v>
       </c>
       <c r="AE4" t="n">
-        <v>171182.7220919127</v>
+        <v>217861.6444711759</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.94643694729699e-06</v>
+        <v>5.730893456997455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>154845.2833519675</v>
+        <v>197069.2348936477</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.6116522188833</v>
+        <v>152.5569913811172</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2896953425909</v>
+        <v>208.7352059470072</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.8009945941568</v>
+        <v>188.8138108531859</v>
       </c>
       <c r="AD5" t="n">
-        <v>118611.6522188833</v>
+        <v>152556.9913811172</v>
       </c>
       <c r="AE5" t="n">
-        <v>162289.6953425909</v>
+        <v>208735.2059470073</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.126482824283353e-06</v>
+        <v>5.992350500948767e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.488425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>146800.9945941568</v>
+        <v>188813.8108531859</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.4035080928549</v>
+        <v>150.3488472550888</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.2684151329169</v>
+        <v>205.7139257373332</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.0680611272996</v>
+        <v>186.0808773863288</v>
       </c>
       <c r="AD6" t="n">
-        <v>116403.5080928549</v>
+        <v>150348.8472550888</v>
       </c>
       <c r="AE6" t="n">
-        <v>159268.4151329169</v>
+        <v>205713.9257373332</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.182637067565195e-06</v>
+        <v>6.073895953138741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>144068.0611272996</v>
+        <v>186080.8773863288</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2339520928133</v>
+        <v>136.8122719441184</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.5127593800918</v>
+        <v>187.1925862053177</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2932960287718</v>
+        <v>169.3271885043797</v>
       </c>
       <c r="AD2" t="n">
-        <v>101233.9520928133</v>
+        <v>136812.2719441184</v>
       </c>
       <c r="AE2" t="n">
-        <v>138512.7593800918</v>
+        <v>187192.5862053177</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.100415555333046e-06</v>
+        <v>6.835148431910425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.681712962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>125293.2960287718</v>
+        <v>169327.1885043797</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8859530788045</v>
+        <v>152.570865636047</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.4014941142062</v>
+        <v>208.7541893146911</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.6158076584471</v>
+        <v>188.8309824749014</v>
       </c>
       <c r="AD2" t="n">
-        <v>120885.9530788045</v>
+        <v>152570.865636047</v>
       </c>
       <c r="AE2" t="n">
-        <v>165401.4941142062</v>
+        <v>208754.1893146911</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.05354383778538e-06</v>
+        <v>6.16911520816534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.391203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>149615.8076584471</v>
+        <v>188830.9824749014</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9723153040672</v>
+        <v>132.5718870067381</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.1547763831291</v>
+        <v>181.3907044614163</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9694784266068</v>
+        <v>164.0790302111223</v>
       </c>
       <c r="AD3" t="n">
-        <v>100972.3153040672</v>
+        <v>132571.887006738</v>
       </c>
       <c r="AE3" t="n">
-        <v>138154.7763831291</v>
+        <v>181390.7044614163</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.558590756082371e-06</v>
+        <v>6.937749457401742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>124969.4784266068</v>
+        <v>164079.0302111223</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.337911583949</v>
+        <v>189.9984251485122</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.3307189527463</v>
+        <v>259.9642274270111</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.8296819159195</v>
+        <v>235.1536064235377</v>
       </c>
       <c r="AD2" t="n">
-        <v>149337.911583949</v>
+        <v>189998.4251485122</v>
       </c>
       <c r="AE2" t="n">
-        <v>204330.7189527462</v>
+        <v>259964.2274270111</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526133032775123e-06</v>
+        <v>5.264201713171925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>184829.6819159195</v>
+        <v>235153.6064235377</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0508911366288</v>
+        <v>142.7157757487531</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5764843557322</v>
+        <v>195.2700205550215</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.2056760242853</v>
+        <v>176.6337238565007</v>
       </c>
       <c r="AD3" t="n">
-        <v>110050.8911366288</v>
+        <v>142715.7757487531</v>
       </c>
       <c r="AE3" t="n">
-        <v>150576.4843557322</v>
+        <v>195270.0205550215</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303932357586047e-06</v>
+        <v>6.425386642984741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.609953703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>136205.6760242853</v>
+        <v>176633.7238565007</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5195020550674</v>
+        <v>139.0137944665996</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7446820204515</v>
+        <v>190.204806444894</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.8350141224051</v>
+        <v>172.0519266719695</v>
       </c>
       <c r="AD4" t="n">
-        <v>106519.5020550675</v>
+        <v>139013.7944665996</v>
       </c>
       <c r="AE4" t="n">
-        <v>145744.6820204515</v>
+        <v>190204.806444894</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.435527717081418e-06</v>
+        <v>6.621846762458966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>131835.0141224051</v>
+        <v>172051.9266719694</v>
       </c>
     </row>
   </sheetData>
